--- a/biology/Zoologie/Erannis/Erannis.xlsx
+++ b/biology/Zoologie/Erannis/Erannis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erannis est un genre de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae. Il y aurait 158 espèces et sous-espèces répertoriées dans ce genre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erannis est un genre de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae. Il y aurait 158 espèces et sous-espèces répertoriées dans ce genre.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 février 2023)[2] :
-Erannis ankeraria (Staudinger, 1861), espèce protégée en Europe (annexes 2 et 4 de la directive Habitats-Faune-Flore[3])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 février 2023) :
+Erannis ankeraria (Staudinger, 1861), espèce protégée en Europe (annexes 2 et 4 de la directive Habitats-Faune-Flore)
 Erannis beschkovi Ganev, 1987
 Erannis declinans (Staudinger, 1879), présente en Europe
 Erannis defoliaria  (Clerck, 1759) - Hibernie défeuillante, présente en Europe
